--- a/Projects/CCRU/Data/KPIs_2020/INPUT/PoS 2020 - FT - CITIES SBI.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/INPUT/PoS 2020 - FT - CITIES SBI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2020\FT POS 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2020\POS 2020 тех файлы\FT POS 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF266D-959F-4A49-832B-01129232DDCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661800A4-4318-4255-953D-78E89CF9B085}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -17,10 +17,10 @@
     <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_" localSheetId="0">'Traditional Trade'!$A$1:$AN$76</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Traditional Trade'!$A$1:$AN$76</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AN$76</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AN$76</definedName>
+    <definedName name="_" localSheetId="0">'Traditional Trade'!$A$1:$AO$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Traditional Trade'!$A$1:$AO$76</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$76</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AO$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="312">
   <si>
     <t>Sorting</t>
   </si>
@@ -1029,6 +1029,9 @@
   </si>
   <si>
     <t>SSD 1 door; NCB 1 door; Mixed 1 door; SSD 1.5 door; NSB  1.5 door; Mixed  1.5 door; SSDFL 1 door; SSDFL 1.5 door; SS_SSD 1 door; SS_NCB 1 door; SS_Mixed 1 door; SS_SSD 1.5 door; SS_NSB  1.5 door; SS_Mixed  1.5 door; SS_SSDFL 1 door; SS_SSDFL 1.5 door</t>
+  </si>
+  <si>
+    <t>Sub brand</t>
   </si>
 </sst>
 </file>
@@ -1547,12 +1550,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AML76"/>
+  <dimension ref="A1:AMM76"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="J1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="Z75" sqref="Z75:Z76"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,21 +1574,21 @@
     <col min="12" max="14" width="8.88671875" style="3" customWidth="1"/>
     <col min="15" max="15" width="35.109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="29.5546875" style="3" customWidth="1"/>
-    <col min="17" max="25" width="8.88671875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="237.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="8.88671875" style="3" customWidth="1"/>
-    <col min="32" max="32" width="14.44140625" style="10" customWidth="1"/>
-    <col min="33" max="36" width="8.88671875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="10.33203125" style="3"/>
-    <col min="38" max="38" width="12" style="3"/>
-    <col min="39" max="39" width="14.6640625" style="3"/>
-    <col min="40" max="40" width="13.109375" style="3"/>
-    <col min="41" max="1026" width="12" style="3"/>
-    <col min="1027" max="16384" width="8.88671875" style="4"/>
+    <col min="17" max="26" width="8.88671875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="237.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="8.88671875" style="3" customWidth="1"/>
+    <col min="33" max="33" width="14.44140625" style="10" customWidth="1"/>
+    <col min="34" max="37" width="8.88671875" style="3" customWidth="1"/>
+    <col min="38" max="38" width="10.33203125" style="3"/>
+    <col min="39" max="39" width="12" style="3"/>
+    <col min="40" max="40" width="14.6640625" style="3"/>
+    <col min="41" max="41" width="13.109375" style="3"/>
+    <col min="42" max="1027" width="12" style="3"/>
+    <col min="1028" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1026" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1641,73 +1644,76 @@
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1755,20 +1761,20 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-      <c r="AG2" s="4"/>
+      <c r="AF2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
-      <c r="AK2" s="3">
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="3">
         <v>1</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AM2" s="3">
         <v>300</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="AN2" s="4"/>
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>
@@ -2754,8 +2760,9 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
       <c r="AMK2" s="4"/>
+      <c r="AML2" s="4"/>
     </row>
-    <row r="3" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2807,27 +2814,28 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
-      <c r="AK3" s="3">
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="3">
         <v>2</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AM3" s="3">
         <v>1</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AO3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2867,48 +2875,49 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="4"/>
+      <c r="T4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AG4" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
-      <c r="AK4" s="3">
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="3">
         <v>3</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AM4" s="3">
         <v>2</v>
       </c>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="3">
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2948,48 +2957,49 @@
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="4"/>
+      <c r="T5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AG5" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
-      <c r="AK5" s="3">
-        <v>3</v>
-      </c>
+      <c r="AK5" s="4"/>
       <c r="AL5" s="3">
         <v>3</v>
       </c>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="3">
+      <c r="AM5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3029,48 +3039,49 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
-      <c r="AE6" s="3" t="s">
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AG6" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
-      <c r="AK6" s="3">
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="3">
         <v>3</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AM6" s="3">
         <v>4</v>
       </c>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="3">
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3110,48 +3121,49 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="4"/>
+      <c r="T7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="4"/>
+      <c r="Y7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="3" t="s">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
-      <c r="AE7" s="3" t="s">
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AG7" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
-      <c r="AK7" s="3">
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="3">
         <v>3</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AM7" s="3">
         <v>5</v>
       </c>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="3">
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3191,48 +3203,49 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="4"/>
+      <c r="T8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="3" t="s">
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
-      <c r="AE8" s="3" t="s">
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AG8" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
-      <c r="AK8" s="3">
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="3">
         <v>3</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AM8" s="3">
         <v>6</v>
       </c>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="3">
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3272,48 +3285,49 @@
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="3" t="s">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="3" t="s">
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
-      <c r="AE9" s="3" t="s">
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AG9" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
-      <c r="AK9" s="3">
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="3">
         <v>3</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AM9" s="3">
         <v>7</v>
       </c>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="3">
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3353,48 +3367,49 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="3" t="s">
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="3" t="s">
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AG10" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
-      <c r="AK10" s="3">
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="3">
         <v>3</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AM10" s="3">
         <v>8</v>
       </c>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="3">
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3434,48 +3449,49 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="4"/>
+      <c r="T11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="4"/>
+      <c r="Y11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="3" t="s">
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
-      <c r="AE11" s="3" t="s">
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AG11" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
-      <c r="AK11" s="3">
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="3">
         <v>3</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AM11" s="3">
         <v>9</v>
       </c>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="3">
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3515,48 +3531,49 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="3" t="s">
+      <c r="S12" s="4"/>
+      <c r="T12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="3" t="s">
+      <c r="X12" s="4"/>
+      <c r="Y12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
-      <c r="AE12" s="3" t="s">
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF12" s="10">
+      <c r="AG12" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
-      <c r="AK12" s="3">
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="3">
         <v>3</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AM12" s="3">
         <v>10</v>
       </c>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="3">
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3596,48 +3613,49 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="3" t="s">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="3" t="s">
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
-      <c r="AE13" s="3" t="s">
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF13" s="10">
+      <c r="AG13" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
-      <c r="AK13" s="3">
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="3">
         <v>3</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AM13" s="3">
         <v>11</v>
       </c>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="3">
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3677,48 +3695,49 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="4"/>
+      <c r="T14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
-      <c r="AE14" s="3" t="s">
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF14" s="10">
+      <c r="AG14" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
-      <c r="AK14" s="3">
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="3">
         <v>3</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AM14" s="3">
         <v>12</v>
       </c>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="3">
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3758,48 +3777,49 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
-      <c r="AE15" s="3" t="s">
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF15" s="10">
+      <c r="AG15" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
-      <c r="AK15" s="3">
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="3">
         <v>3</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AM15" s="3">
         <v>13</v>
       </c>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="3">
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1025" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3839,48 +3859,49 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="4"/>
+      <c r="T16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="3" t="s">
+      <c r="X16" s="4"/>
+      <c r="Y16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-      <c r="AA16" s="3" t="s">
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
-      <c r="AE16" s="3" t="s">
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF16" s="10">
+      <c r="AG16" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="3">
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="3">
         <v>3</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AM16" s="3">
         <v>14</v>
       </c>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="3">
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3920,48 +3941,49 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="4"/>
+      <c r="T17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="X17" s="3" t="s">
+      <c r="X17" s="4"/>
+      <c r="Y17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
-      <c r="AA17" s="3" t="s">
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
-      <c r="AE17" s="3" t="s">
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF17" s="10">
+      <c r="AG17" s="10">
         <v>0.01</v>
       </c>
-      <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
-      <c r="AK17" s="3">
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="3">
         <v>3</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AM17" s="3">
         <v>15</v>
       </c>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="3">
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4001,48 +4023,49 @@
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="3" t="s">
+      <c r="S18" s="4"/>
+      <c r="T18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="3" t="s">
+      <c r="X18" s="4"/>
+      <c r="Y18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
-      <c r="AA18" s="3" t="s">
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
-      <c r="AE18" s="3" t="s">
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF18" s="10">
+      <c r="AG18" s="10">
         <v>0.01</v>
       </c>
-      <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
-      <c r="AK18" s="3">
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="3">
         <v>3</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AM18" s="3">
         <v>16</v>
       </c>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="3">
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4082,48 +4105,49 @@
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="3" t="s">
+      <c r="S19" s="4"/>
+      <c r="T19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="3" t="s">
+      <c r="X19" s="4"/>
+      <c r="Y19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-      <c r="AA19" s="3" t="s">
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
-      <c r="AE19" s="3" t="s">
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF19" s="10">
+      <c r="AG19" s="10">
         <v>0.01</v>
       </c>
-      <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
-      <c r="AK19" s="3">
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="3">
         <v>3</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AM19" s="3">
         <v>17</v>
       </c>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="3">
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4174,27 +4198,28 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
-      <c r="AE20" s="3" t="s">
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
-      <c r="AK20" s="3">
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="3">
         <v>2</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AM20" s="3">
         <v>21</v>
       </c>
-      <c r="AM20" s="6" t="s">
+      <c r="AN20" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AO20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4234,48 +4259,49 @@
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="3" t="s">
+      <c r="S21" s="4"/>
+      <c r="T21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-      <c r="X21" s="3" t="s">
+      <c r="X21" s="4"/>
+      <c r="Y21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
-      <c r="AA21" s="3" t="s">
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
-      <c r="AE21" s="3" t="s">
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF21" s="10">
+      <c r="AG21" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
-      <c r="AK21" s="3">
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="3">
         <v>3</v>
       </c>
-      <c r="AL21" s="3">
+      <c r="AM21" s="3">
         <v>22</v>
       </c>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="3">
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4315,48 +4341,49 @@
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="4"/>
+      <c r="T22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
-      <c r="AE22" s="3" t="s">
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF22" s="10">
+      <c r="AG22" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
-      <c r="AK22" s="3">
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="3">
         <v>3</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AM22" s="3">
         <v>23</v>
       </c>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="3">
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4396,48 +4423,49 @@
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="3" t="s">
+      <c r="S23" s="4"/>
+      <c r="T23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="3" t="s">
+      <c r="X23" s="4"/>
+      <c r="Y23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
-      <c r="AA23" s="3" t="s">
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
-      <c r="AE23" s="3" t="s">
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF23" s="10">
+      <c r="AG23" s="10">
         <v>0.01</v>
       </c>
-      <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
-      <c r="AK23" s="3">
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="3">
         <v>3</v>
       </c>
-      <c r="AL23" s="3">
+      <c r="AM23" s="3">
         <v>24</v>
       </c>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="3">
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4488,27 +4516,28 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
-      <c r="AE24" s="3" t="s">
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
-      <c r="AK24" s="3">
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="3">
         <v>2</v>
       </c>
-      <c r="AL24" s="3">
+      <c r="AM24" s="3">
         <v>27</v>
       </c>
-      <c r="AM24" s="6" t="s">
+      <c r="AN24" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="AN24" s="3">
+      <c r="AO24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4548,48 +4577,49 @@
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="3" t="s">
+      <c r="S25" s="4"/>
+      <c r="T25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="X25" s="3" t="s">
+      <c r="X25" s="4"/>
+      <c r="Y25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
-      <c r="AA25" s="3" t="s">
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="3" t="s">
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF25" s="10">
+      <c r="AG25" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
-      <c r="AK25" s="3">
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="3">
         <v>3</v>
       </c>
-      <c r="AL25" s="3">
+      <c r="AM25" s="3">
         <v>28</v>
       </c>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="3">
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4629,48 +4659,49 @@
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3" t="s">
+      <c r="S26" s="4"/>
+      <c r="T26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="X26" s="3" t="s">
+      <c r="X26" s="4"/>
+      <c r="Y26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="3" t="s">
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
-      <c r="AE26" s="3" t="s">
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF26" s="10">
+      <c r="AG26" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
-      <c r="AK26" s="3">
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="3">
         <v>3</v>
       </c>
-      <c r="AL26" s="3">
+      <c r="AM26" s="3">
         <v>29</v>
       </c>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="3">
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4710,48 +4741,49 @@
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="3" t="s">
+      <c r="S27" s="4"/>
+      <c r="T27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="X27" s="3" t="s">
+      <c r="X27" s="4"/>
+      <c r="Y27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
-      <c r="AA27" s="3" t="s">
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="3" t="s">
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF27" s="10">
+      <c r="AG27" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
-      <c r="AK27" s="3">
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="3">
         <v>3</v>
       </c>
-      <c r="AL27" s="3">
+      <c r="AM27" s="3">
         <v>30</v>
       </c>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="3">
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4791,48 +4823,49 @@
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="4"/>
+      <c r="T28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="3" t="s">
+      <c r="X28" s="4"/>
+      <c r="Y28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
-      <c r="AA28" s="3" t="s">
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
-      <c r="AE28" s="3" t="s">
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF28" s="10">
+      <c r="AG28" s="10">
         <v>0.01</v>
       </c>
-      <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
-      <c r="AK28" s="3">
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="3">
         <v>3</v>
       </c>
-      <c r="AL28" s="3">
+      <c r="AM28" s="3">
         <v>31</v>
       </c>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="3">
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4883,27 +4916,28 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
-      <c r="AE29" s="3" t="s">
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
-      <c r="AK29" s="3">
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="3">
         <v>2</v>
       </c>
-      <c r="AL29" s="3">
+      <c r="AM29" s="3">
         <v>33</v>
       </c>
-      <c r="AM29" s="6" t="s">
+      <c r="AN29" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="AN29" s="3">
+      <c r="AO29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4943,48 +4977,49 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="4"/>
+      <c r="T30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="3" t="s">
+      <c r="X30" s="4"/>
+      <c r="Y30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
-      <c r="AA30" s="3" t="s">
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
-      <c r="AE30" s="3" t="s">
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF30" s="10">
+      <c r="AG30" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
-      <c r="AK30" s="3">
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="3">
         <v>3</v>
       </c>
-      <c r="AL30" s="3">
+      <c r="AM30" s="3">
         <v>34</v>
       </c>
-      <c r="AM30" s="4"/>
-      <c r="AN30" s="3">
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5024,48 +5059,49 @@
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="4"/>
+      <c r="T31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="3" t="s">
+      <c r="X31" s="4"/>
+      <c r="Y31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
-      <c r="AA31" s="3" t="s">
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
-      <c r="AE31" s="3" t="s">
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF31" s="10">
+      <c r="AG31" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
-      <c r="AK31" s="3">
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="3">
         <v>3</v>
       </c>
-      <c r="AL31" s="3">
+      <c r="AM31" s="3">
         <v>35</v>
       </c>
-      <c r="AM31" s="4"/>
-      <c r="AN31" s="3">
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -5116,27 +5152,28 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
-      <c r="AE32" s="3" t="s">
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
-      <c r="AK32" s="3">
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="3">
         <v>2</v>
       </c>
-      <c r="AL32" s="3">
+      <c r="AM32" s="3">
         <v>37</v>
       </c>
-      <c r="AM32" s="6" t="s">
+      <c r="AN32" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AN32" s="3">
+      <c r="AO32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -5175,48 +5212,49 @@
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="4"/>
+      <c r="T33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-      <c r="X33" s="3" t="s">
+      <c r="X33" s="4"/>
+      <c r="Y33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
-      <c r="AA33" s="3" t="s">
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
-      <c r="AE33" s="3" t="s">
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF33" s="10">
+      <c r="AG33" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
-      <c r="AK33" s="3">
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="3">
         <v>3</v>
       </c>
-      <c r="AL33" s="3">
-        <v>38</v>
-      </c>
-      <c r="AM33" s="4"/>
-      <c r="AN33" s="3">
+      <c r="AM33" s="3">
+        <v>38</v>
+      </c>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -5255,48 +5293,49 @@
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="3" t="s">
+      <c r="S34" s="4"/>
+      <c r="T34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="U34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-      <c r="X34" s="3" t="s">
+      <c r="X34" s="4"/>
+      <c r="Y34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
-      <c r="AA34" s="3" t="s">
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
-      <c r="AE34" s="3" t="s">
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF34" s="10">
+      <c r="AG34" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
-      <c r="AK34" s="3">
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="3">
         <v>3</v>
       </c>
-      <c r="AL34" s="3">
+      <c r="AM34" s="3">
         <v>39</v>
       </c>
-      <c r="AM34" s="4"/>
-      <c r="AN34" s="3">
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -5335,48 +5374,49 @@
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="3" t="s">
+      <c r="S35" s="4"/>
+      <c r="T35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-      <c r="X35" s="3" t="s">
+      <c r="X35" s="4"/>
+      <c r="Y35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
-      <c r="AA35" s="3" t="s">
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
-      <c r="AE35" s="3" t="s">
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF35" s="10">
+      <c r="AG35" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
-      <c r="AK35" s="3">
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="3">
         <v>3</v>
       </c>
-      <c r="AL35" s="3">
+      <c r="AM35" s="3">
         <v>40</v>
       </c>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="3">
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -5415,48 +5455,49 @@
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="3" t="s">
+      <c r="S36" s="4"/>
+      <c r="T36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-      <c r="X36" s="3" t="s">
+      <c r="X36" s="4"/>
+      <c r="Y36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
-      <c r="AA36" s="3" t="s">
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
-      <c r="AE36" s="3" t="s">
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF36" s="10">
+      <c r="AG36" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
-      <c r="AK36" s="3">
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="3">
         <v>3</v>
       </c>
-      <c r="AL36" s="3">
+      <c r="AM36" s="3">
         <v>41</v>
       </c>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="3">
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5495,48 +5536,49 @@
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="3" t="s">
+      <c r="S37" s="4"/>
+      <c r="T37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="U37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="3" t="s">
+      <c r="X37" s="4"/>
+      <c r="Y37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
-      <c r="AA37" s="3" t="s">
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
-      <c r="AE37" s="3" t="s">
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF37" s="10">
+      <c r="AG37" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
-      <c r="AK37" s="3">
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="3">
         <v>3</v>
       </c>
-      <c r="AL37" s="3">
+      <c r="AM37" s="3">
         <v>42</v>
       </c>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="3">
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5575,48 +5617,49 @@
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="3" t="s">
+      <c r="S38" s="4"/>
+      <c r="T38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="U38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-      <c r="X38" s="3" t="s">
+      <c r="X38" s="4"/>
+      <c r="Y38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
-      <c r="AA38" s="3" t="s">
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
-      <c r="AE38" s="3" t="s">
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF38" s="10">
+      <c r="AG38" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
-      <c r="AK38" s="3">
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="3">
         <v>3</v>
       </c>
-      <c r="AL38" s="3">
+      <c r="AM38" s="3">
         <v>43</v>
       </c>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="3">
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5655,48 +5698,49 @@
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="3" t="s">
+      <c r="S39" s="4"/>
+      <c r="T39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="3" t="s">
+      <c r="X39" s="4"/>
+      <c r="Y39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
-      <c r="AA39" s="3" t="s">
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
-      <c r="AE39" s="3" t="s">
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF39" s="10">
+      <c r="AG39" s="10">
         <v>0.01</v>
       </c>
-      <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
-      <c r="AK39" s="3">
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="3">
         <v>3</v>
       </c>
-      <c r="AL39" s="3">
+      <c r="AM39" s="3">
         <v>44</v>
       </c>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="3">
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5732,29 +5776,30 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="Y40" s="4"/>
+      <c r="X40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
-      <c r="AG40" s="4"/>
+      <c r="AF40" s="4"/>
       <c r="AH40" s="4"/>
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
-      <c r="AK40" s="3">
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="3">
         <v>1</v>
       </c>
-      <c r="AL40" s="3">
+      <c r="AM40" s="3">
         <v>400</v>
       </c>
-      <c r="AM40" s="6" t="s">
+      <c r="AN40" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
     </row>
-    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5790,31 +5835,32 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-      <c r="Y41" s="4"/>
+      <c r="X41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
-      <c r="AG41" s="4"/>
+      <c r="AF41" s="4"/>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
-      <c r="AK41" s="3">
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="3">
         <v>1</v>
       </c>
-      <c r="AL41" s="3">
+      <c r="AM41" s="3">
         <v>48</v>
       </c>
-      <c r="AM41" s="3">
+      <c r="AN41" s="3">
         <v>49</v>
       </c>
-      <c r="AN41" s="3">
+      <c r="AO41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5851,36 +5897,37 @@
       </c>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="3" t="s">
+      <c r="T42" s="4"/>
+      <c r="U42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U42" s="4"/>
-      <c r="Y42" s="3" t="s">
+      <c r="V42" s="4"/>
+      <c r="Z42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="3" t="s">
+      <c r="AB42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AF42" s="10">
+      <c r="AG42" s="10">
         <v>0.03</v>
       </c>
-      <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
-      <c r="AK42" s="3">
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="3">
         <v>2</v>
       </c>
-      <c r="AL42" s="3">
+      <c r="AM42" s="3">
         <v>49</v>
       </c>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="3">
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5913,27 +5960,28 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="Y43" s="4"/>
+      <c r="V43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
-      <c r="AD43" s="4"/>
+      <c r="AB43" s="4"/>
       <c r="AE43" s="4"/>
-      <c r="AI43" s="4"/>
+      <c r="AF43" s="4"/>
       <c r="AJ43" s="4"/>
-      <c r="AK43" s="3">
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="3">
         <v>1</v>
       </c>
-      <c r="AL43" s="3">
+      <c r="AM43" s="3">
         <v>50</v>
       </c>
-      <c r="AM43" s="3">
+      <c r="AN43" s="3">
         <v>51</v>
       </c>
-      <c r="AN43" s="3">
+      <c r="AO43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5970,36 +6018,37 @@
       </c>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="3" t="s">
+      <c r="T44" s="4"/>
+      <c r="U44" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="4"/>
-      <c r="Y44" s="3" t="s">
+      <c r="V44" s="4"/>
+      <c r="Z44" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="3" t="s">
+      <c r="AB44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AF44" s="10">
+      <c r="AG44" s="10">
         <v>0.02</v>
       </c>
-      <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
-      <c r="AK44" s="3">
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="3">
         <v>2</v>
       </c>
-      <c r="AL44" s="3">
+      <c r="AM44" s="3">
         <v>51</v>
       </c>
-      <c r="AM44" s="4"/>
-      <c r="AN44" s="3">
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -6032,27 +6081,28 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
-      <c r="Y45" s="4"/>
+      <c r="V45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
-      <c r="AD45" s="4"/>
+      <c r="AB45" s="4"/>
       <c r="AE45" s="4"/>
-      <c r="AI45" s="4"/>
+      <c r="AF45" s="4"/>
       <c r="AJ45" s="4"/>
-      <c r="AK45" s="3">
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="3">
         <v>1</v>
       </c>
-      <c r="AL45" s="3">
+      <c r="AM45" s="3">
         <v>52</v>
       </c>
-      <c r="AM45" s="3">
+      <c r="AN45" s="3">
         <v>53</v>
       </c>
-      <c r="AN45" s="3">
+      <c r="AO45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -6089,36 +6139,37 @@
       </c>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="3" t="s">
+      <c r="T46" s="4"/>
+      <c r="U46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U46" s="4"/>
-      <c r="Y46" s="3" t="s">
+      <c r="V46" s="4"/>
+      <c r="Z46" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="3" t="s">
+      <c r="AB46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AF46" s="10">
+      <c r="AG46" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
-      <c r="AK46" s="3">
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="3">
         <v>2</v>
       </c>
-      <c r="AL46" s="3">
+      <c r="AM46" s="3">
         <v>53</v>
       </c>
-      <c r="AM46" s="4"/>
-      <c r="AN46" s="3">
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -6151,25 +6202,26 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="Y47" s="4"/>
+      <c r="V47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
-      <c r="AD47" s="4"/>
+      <c r="AB47" s="4"/>
       <c r="AE47" s="4"/>
-      <c r="AI47" s="4"/>
+      <c r="AF47" s="4"/>
       <c r="AJ47" s="4"/>
-      <c r="AK47" s="3">
+      <c r="AK47" s="4"/>
+      <c r="AL47" s="3">
         <v>1</v>
       </c>
-      <c r="AL47" s="3">
+      <c r="AM47" s="3">
         <v>500</v>
       </c>
-      <c r="AM47" s="6" t="s">
+      <c r="AN47" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="AN47" s="4"/>
+      <c r="AO47" s="4"/>
     </row>
-    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -6202,27 +6254,28 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="Y48" s="4"/>
+      <c r="V48" s="4"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
-      <c r="AD48" s="4"/>
+      <c r="AB48" s="4"/>
       <c r="AE48" s="4"/>
-      <c r="AI48" s="4"/>
+      <c r="AF48" s="4"/>
       <c r="AJ48" s="4"/>
-      <c r="AK48" s="3">
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="3">
         <v>1</v>
       </c>
-      <c r="AL48" s="3">
+      <c r="AM48" s="3">
         <v>54</v>
       </c>
-      <c r="AM48" s="11">
+      <c r="AN48" s="11">
         <v>55</v>
       </c>
-      <c r="AN48" s="3">
+      <c r="AO48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -6257,39 +6310,40 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="3" t="s">
+      <c r="S49" s="4"/>
+      <c r="T49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="T49" s="4"/>
       <c r="U49" s="4"/>
-      <c r="Y49" s="3" t="s">
+      <c r="V49" s="4"/>
+      <c r="Z49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="3" t="s">
+      <c r="AB49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF49" s="10">
+      <c r="AG49" s="10">
         <v>0.04</v>
       </c>
-      <c r="AI49" s="4"/>
       <c r="AJ49" s="4"/>
-      <c r="AK49" s="3">
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="3">
         <v>2</v>
       </c>
-      <c r="AL49" s="3">
+      <c r="AM49" s="3">
         <v>55</v>
       </c>
-      <c r="AM49" s="6" t="s">
+      <c r="AN49" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AN49" s="3">
+      <c r="AO49" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -6327,36 +6381,37 @@
         <v>114</v>
       </c>
       <c r="R50" s="4"/>
-      <c r="S50" s="3" t="s">
+      <c r="S50" s="4"/>
+      <c r="T50" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T50" s="3" t="s">
+      <c r="U50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U50" s="4"/>
-      <c r="Y50" s="3" t="s">
+      <c r="V50" s="4"/>
+      <c r="Z50" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="3" t="s">
+      <c r="AB50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI50" s="4"/>
       <c r="AJ50" s="4"/>
-      <c r="AK50" s="3">
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="3">
         <v>3</v>
       </c>
-      <c r="AL50" s="3">
+      <c r="AM50" s="3">
         <v>56</v>
       </c>
-      <c r="AM50" s="4"/>
-      <c r="AN50" s="3">
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -6390,36 +6445,37 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="R51" s="4"/>
-      <c r="S51" s="3" t="s">
+      <c r="S51" s="4"/>
+      <c r="T51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-      <c r="Y51" s="3" t="s">
+      <c r="V51" s="4"/>
+      <c r="Z51" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="3" t="s">
+      <c r="AB51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI51" s="4"/>
       <c r="AJ51" s="4"/>
-      <c r="AK51" s="3">
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="3">
         <v>3</v>
       </c>
-      <c r="AL51" s="3">
+      <c r="AM51" s="3">
         <v>57</v>
       </c>
-      <c r="AM51" s="6">
+      <c r="AN51" s="6">
         <v>58</v>
       </c>
-      <c r="AN51" s="3">
+      <c r="AO51" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -6455,38 +6511,39 @@
         <v>264</v>
       </c>
       <c r="R52" s="4"/>
-      <c r="S52" s="3" t="s">
+      <c r="S52" s="4"/>
+      <c r="T52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="U52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U52" s="4"/>
-      <c r="Y52" s="3" t="s">
+      <c r="V52" s="4"/>
+      <c r="Z52" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="3" t="s">
+      <c r="AB52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI52" s="4"/>
-      <c r="AJ52" s="3" t="s">
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AK52" s="3">
+      <c r="AL52" s="3">
         <v>4</v>
       </c>
-      <c r="AL52" s="3">
+      <c r="AM52" s="3">
         <v>58</v>
       </c>
-      <c r="AM52" s="4"/>
-      <c r="AN52" s="3">
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -6519,27 +6576,28 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="Y53" s="4"/>
+      <c r="V53" s="4"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
-      <c r="AD53" s="4"/>
+      <c r="AB53" s="4"/>
       <c r="AE53" s="4"/>
-      <c r="AI53" s="4"/>
+      <c r="AF53" s="4"/>
       <c r="AJ53" s="4"/>
-      <c r="AK53" s="3">
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="3">
         <v>1</v>
       </c>
-      <c r="AL53" s="3">
+      <c r="AM53" s="3">
         <v>59</v>
       </c>
-      <c r="AM53" s="3">
+      <c r="AN53" s="3">
         <v>60</v>
       </c>
-      <c r="AN53" s="3">
+      <c r="AO53" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -6574,39 +6632,40 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="R54" s="4"/>
-      <c r="S54" s="3" t="s">
+      <c r="S54" s="4"/>
+      <c r="T54" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T54" s="4"/>
       <c r="U54" s="4"/>
-      <c r="Y54" s="3" t="s">
+      <c r="V54" s="4"/>
+      <c r="Z54" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="3" t="s">
+      <c r="AB54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF54" s="10">
+      <c r="AG54" s="10">
         <v>0.04</v>
       </c>
-      <c r="AI54" s="4"/>
       <c r="AJ54" s="4"/>
-      <c r="AK54" s="3">
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="3">
         <v>2</v>
       </c>
-      <c r="AL54" s="3">
+      <c r="AM54" s="3">
         <v>60</v>
       </c>
-      <c r="AM54" s="6" t="s">
+      <c r="AN54" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="AN54" s="3">
+      <c r="AO54" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -6644,36 +6703,37 @@
         <v>129</v>
       </c>
       <c r="R55" s="4"/>
-      <c r="S55" s="3" t="s">
+      <c r="S55" s="4"/>
+      <c r="T55" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T55" s="3" t="s">
+      <c r="U55" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U55" s="4"/>
-      <c r="Y55" s="3" t="s">
+      <c r="V55" s="4"/>
+      <c r="Z55" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="3" t="s">
+      <c r="AB55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
-      <c r="AK55" s="3">
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="3">
         <v>3</v>
       </c>
-      <c r="AL55" s="3">
+      <c r="AM55" s="3">
         <v>61</v>
       </c>
-      <c r="AM55" s="4"/>
-      <c r="AN55" s="3">
+      <c r="AN55" s="4"/>
+      <c r="AO55" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -6707,36 +6767,37 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="3" t="s">
+      <c r="S56" s="4"/>
+      <c r="T56" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="Y56" s="3" t="s">
+      <c r="V56" s="4"/>
+      <c r="Z56" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="3" t="s">
+      <c r="AB56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
-      <c r="AK56" s="3">
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="3">
         <v>3</v>
       </c>
-      <c r="AL56" s="3">
+      <c r="AM56" s="3">
         <v>62</v>
       </c>
-      <c r="AM56" s="6" t="s">
+      <c r="AN56" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="AN56" s="3">
+      <c r="AO56" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -6772,38 +6833,39 @@
         <v>91</v>
       </c>
       <c r="R57" s="4"/>
-      <c r="S57" s="3" t="s">
+      <c r="S57" s="4"/>
+      <c r="T57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T57" s="3" t="s">
+      <c r="U57" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U57" s="4"/>
-      <c r="Y57" s="3" t="s">
+      <c r="V57" s="4"/>
+      <c r="Z57" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="3" t="s">
+      <c r="AB57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI57" s="4"/>
-      <c r="AJ57" s="3" t="s">
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AK57" s="3">
+      <c r="AL57" s="3">
         <v>4</v>
       </c>
-      <c r="AL57" s="3">
+      <c r="AM57" s="3">
         <v>63</v>
       </c>
-      <c r="AM57" s="4"/>
-      <c r="AN57" s="3">
+      <c r="AN57" s="4"/>
+      <c r="AO57" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -6839,38 +6901,39 @@
         <v>94</v>
       </c>
       <c r="R58" s="4"/>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="4"/>
+      <c r="T58" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U58" s="4"/>
-      <c r="Y58" s="3" t="s">
+      <c r="V58" s="4"/>
+      <c r="Z58" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="3" t="s">
+      <c r="AB58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI58" s="4"/>
-      <c r="AJ58" s="3" t="s">
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AK58" s="3">
+      <c r="AL58" s="3">
         <v>4</v>
       </c>
-      <c r="AL58" s="3">
+      <c r="AM58" s="3">
         <v>64</v>
       </c>
-      <c r="AM58" s="4"/>
-      <c r="AN58" s="3">
+      <c r="AN58" s="4"/>
+      <c r="AO58" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -6905,37 +6968,38 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="3" t="s">
+      <c r="S59" s="4"/>
+      <c r="T59" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="Y59" s="4"/>
+      <c r="V59" s="4"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="3" t="s">
+      <c r="AB59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AF59" s="10">
+      <c r="AG59" s="10">
         <v>0.02</v>
       </c>
-      <c r="AI59" s="4"/>
       <c r="AJ59" s="4"/>
-      <c r="AK59" s="3">
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="3">
         <v>2</v>
       </c>
-      <c r="AL59" s="3">
+      <c r="AM59" s="3">
         <v>65</v>
       </c>
-      <c r="AM59" s="6" t="s">
+      <c r="AN59" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AN59" s="3">
+      <c r="AO59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -6971,38 +7035,38 @@
       <c r="R60" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="S60" s="3" t="s">
+      <c r="T60" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T60" s="3" t="s">
+      <c r="U60" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="U60" s="3" t="s">
+      <c r="V60" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="3" t="s">
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="AA60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="3" t="s">
+      <c r="AB60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI60" s="4"/>
       <c r="AJ60" s="4"/>
-      <c r="AK60" s="3">
+      <c r="AK60" s="4"/>
+      <c r="AL60" s="3">
         <v>3</v>
       </c>
-      <c r="AL60" s="3">
+      <c r="AM60" s="3">
         <v>66</v>
       </c>
-      <c r="AM60" s="4"/>
-      <c r="AN60" s="3">
+      <c r="AN60" s="4"/>
+      <c r="AO60" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -7035,36 +7099,37 @@
       <c r="P61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="3" t="s">
+      <c r="T61" s="4"/>
+      <c r="U61" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="3" t="s">
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="AA61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="3" t="s">
+      <c r="AB61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI61" s="3" t="s">
+      <c r="AJ61" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AJ61" s="3" t="s">
+      <c r="AK61" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AK61" s="3">
+      <c r="AL61" s="3">
         <v>3</v>
       </c>
-      <c r="AL61" s="3">
+      <c r="AM61" s="3">
         <v>67</v>
       </c>
-      <c r="AM61" s="4"/>
-      <c r="AN61" s="3">
+      <c r="AN61" s="4"/>
+      <c r="AO61" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -7097,38 +7162,39 @@
         <v>114</v>
       </c>
       <c r="R62" s="4"/>
-      <c r="S62" s="3" t="s">
+      <c r="S62" s="4"/>
+      <c r="T62" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="U62" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U62" s="3" t="s">
+      <c r="V62" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="3" t="s">
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="AA62" s="4"/>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="3" t="s">
+      <c r="AB62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
-      <c r="AK62" s="3">
+      <c r="AK62" s="4"/>
+      <c r="AL62" s="3">
         <v>3</v>
       </c>
-      <c r="AL62" s="3">
+      <c r="AM62" s="3">
         <v>68</v>
       </c>
-      <c r="AM62" s="4"/>
-      <c r="AN62" s="3">
+      <c r="AN62" s="4"/>
+      <c r="AO62" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -7161,36 +7227,37 @@
       <c r="P63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-      <c r="T63" s="3" t="s">
+      <c r="T63" s="4"/>
+      <c r="U63" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="3" t="s">
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AA63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="3" t="s">
+      <c r="AB63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI63" s="3" t="s">
+      <c r="AJ63" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AJ63" s="3" t="s">
+      <c r="AK63" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="AK63" s="3">
+      <c r="AL63" s="3">
         <v>3</v>
       </c>
-      <c r="AL63" s="3">
+      <c r="AM63" s="3">
         <v>69</v>
       </c>
-      <c r="AM63" s="4"/>
-      <c r="AN63" s="3">
+      <c r="AN63" s="4"/>
+      <c r="AO63" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -7222,25 +7289,26 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
-      <c r="Y64" s="4"/>
+      <c r="U64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
-      <c r="AD64" s="4"/>
+      <c r="AB64" s="4"/>
       <c r="AE64" s="4"/>
-      <c r="AI64" s="4"/>
+      <c r="AF64" s="4"/>
       <c r="AJ64" s="4"/>
-      <c r="AK64" s="3">
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="3">
         <v>1</v>
       </c>
-      <c r="AL64" s="3">
+      <c r="AM64" s="3">
         <v>600</v>
       </c>
-      <c r="AM64" s="6" t="s">
+      <c r="AN64" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
     </row>
-    <row r="65" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -7272,27 +7340,28 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
-      <c r="Y65" s="4"/>
+      <c r="U65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
-      <c r="AD65" s="4"/>
+      <c r="AB65" s="4"/>
       <c r="AE65" s="4"/>
-      <c r="AI65" s="4"/>
+      <c r="AF65" s="4"/>
       <c r="AJ65" s="4"/>
-      <c r="AK65" s="3">
+      <c r="AK65" s="4"/>
+      <c r="AL65" s="3">
         <v>1</v>
       </c>
-      <c r="AL65" s="3">
+      <c r="AM65" s="3">
         <v>70</v>
       </c>
-      <c r="AM65" s="3">
+      <c r="AN65" s="3">
         <v>71</v>
       </c>
-      <c r="AN65" s="3">
+      <c r="AO65" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -7324,38 +7393,39 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="3" t="s">
+      <c r="S66" s="4"/>
+      <c r="T66" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="T66" s="4"/>
-      <c r="Y66" s="4"/>
+      <c r="U66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="3" t="s">
+      <c r="AB66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AF66" s="10">
+      <c r="AG66" s="10">
         <v>0.2</v>
       </c>
-      <c r="AI66" s="4"/>
-      <c r="AJ66" s="3" t="s">
+      <c r="AJ66" s="4"/>
+      <c r="AK66" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AK66" s="3">
+      <c r="AL66" s="3">
         <v>2</v>
       </c>
-      <c r="AL66" s="3">
+      <c r="AM66" s="3">
         <v>71</v>
       </c>
-      <c r="AM66" s="6" t="s">
+      <c r="AN66" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="AN66" s="3">
+      <c r="AO66" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -7396,36 +7466,37 @@
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
-      <c r="T67" s="3" t="s">
+      <c r="T67" s="4"/>
+      <c r="U67" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="Y67" s="3" t="s">
+      <c r="Z67" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
-      <c r="AD67" s="4"/>
-      <c r="AE67" s="3" t="s">
+      <c r="AB67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI67" s="3" t="s">
+      <c r="AJ67" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AJ67" s="3" t="s">
+      <c r="AK67" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AK67" s="3">
+      <c r="AL67" s="3">
         <v>3</v>
       </c>
-      <c r="AL67" s="3">
+      <c r="AM67" s="3">
         <v>72</v>
       </c>
-      <c r="AM67" s="4"/>
-      <c r="AN67" s="3">
+      <c r="AN67" s="4"/>
+      <c r="AO67" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -7464,32 +7535,33 @@
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
-      <c r="T68" s="3" t="s">
+      <c r="T68" s="4"/>
+      <c r="U68" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="Y68" s="3" t="s">
+      <c r="Z68" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="3" t="s">
+      <c r="AB68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI68" s="4"/>
       <c r="AJ68" s="4"/>
-      <c r="AK68" s="3">
+      <c r="AK68" s="4"/>
+      <c r="AL68" s="3">
         <v>3</v>
       </c>
-      <c r="AL68" s="3">
+      <c r="AM68" s="3">
         <v>73</v>
       </c>
-      <c r="AM68" s="4"/>
-      <c r="AN68" s="3">
+      <c r="AN68" s="4"/>
+      <c r="AO68" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -7521,27 +7593,28 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
-      <c r="Y69" s="4"/>
+      <c r="U69" s="4"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
-      <c r="AD69" s="4"/>
+      <c r="AB69" s="4"/>
       <c r="AE69" s="4"/>
-      <c r="AI69" s="4"/>
+      <c r="AF69" s="4"/>
       <c r="AJ69" s="4"/>
-      <c r="AK69" s="3">
+      <c r="AK69" s="4"/>
+      <c r="AL69" s="3">
         <v>1</v>
       </c>
-      <c r="AL69" s="3">
+      <c r="AM69" s="3">
         <v>74</v>
       </c>
-      <c r="AM69" s="6" t="s">
+      <c r="AN69" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="AN69" s="3">
+      <c r="AO69" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -7578,41 +7651,42 @@
       </c>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-      <c r="T70" s="3" t="s">
+      <c r="T70" s="4"/>
+      <c r="U70" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="Y70" s="3" t="s">
+      <c r="Z70" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="Z70" s="3" t="s">
+      <c r="AA70" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="AA70" s="4"/>
-      <c r="AD70" s="4"/>
-      <c r="AE70" s="3" t="s">
+      <c r="AB70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF70" s="10">
+      <c r="AG70" s="10">
         <v>0.03</v>
       </c>
-      <c r="AI70" s="3" t="s">
+      <c r="AJ70" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AJ70" s="3" t="s">
+      <c r="AK70" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AK70" s="3">
+      <c r="AL70" s="3">
         <v>2</v>
       </c>
-      <c r="AL70" s="3">
+      <c r="AM70" s="3">
         <v>75</v>
       </c>
-      <c r="AM70" s="4"/>
-      <c r="AN70" s="3">
+      <c r="AN70" s="4"/>
+      <c r="AO70" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -7655,38 +7729,39 @@
       </c>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-      <c r="T71" s="3" t="s">
+      <c r="T71" s="4"/>
+      <c r="U71" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="Y71" s="3" t="s">
+      <c r="Z71" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Z71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="3" t="s">
+      <c r="AA71" s="4"/>
+      <c r="AE71" s="4"/>
+      <c r="AF71" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AF71" s="10">
+      <c r="AG71" s="10">
         <v>0.03</v>
       </c>
-      <c r="AI71" s="3" t="s">
+      <c r="AJ71" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AJ71" s="3" t="s">
+      <c r="AK71" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AK71" s="3">
+      <c r="AL71" s="3">
         <v>2</v>
       </c>
-      <c r="AL71" s="3">
+      <c r="AM71" s="3">
         <v>76</v>
       </c>
-      <c r="AM71" s="4"/>
-      <c r="AN71" s="3">
+      <c r="AN71" s="4"/>
+      <c r="AO71" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -7718,38 +7793,39 @@
       </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-      <c r="T72" s="3" t="s">
+      <c r="T72" s="4"/>
+      <c r="U72" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="Y72" s="3" t="s">
+      <c r="Z72" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Z72" s="4"/>
-      <c r="AD72" s="4"/>
-      <c r="AE72" s="3" t="s">
+      <c r="AA72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AF72" s="10">
+      <c r="AG72" s="10">
         <v>0.03</v>
       </c>
-      <c r="AI72" s="3" t="s">
+      <c r="AJ72" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AJ72" s="3" t="s">
+      <c r="AK72" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AK72" s="3">
+      <c r="AL72" s="3">
         <v>2</v>
       </c>
-      <c r="AL72" s="3">
+      <c r="AM72" s="3">
         <v>77</v>
       </c>
-      <c r="AM72" s="4"/>
-      <c r="AN72" s="3">
+      <c r="AN72" s="4"/>
+      <c r="AO72" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -7787,43 +7863,44 @@
       <c r="R73" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S73" s="3" t="s">
+      <c r="S73" s="4"/>
+      <c r="T73" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T73" s="4" t="s">
+      <c r="U73" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="Y73" s="3" t="s">
+      <c r="Z73" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Z73" s="4" t="s">
+      <c r="AA73" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="3" t="s">
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF73" s="10">
+      <c r="AG73" s="10">
         <v>0.03</v>
       </c>
-      <c r="AI73" s="3" t="s">
+      <c r="AJ73" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AJ73" s="3" t="s">
+      <c r="AK73" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AK73" s="3">
+      <c r="AL73" s="3">
         <v>2</v>
       </c>
-      <c r="AL73" s="3">
+      <c r="AM73" s="3">
         <v>78</v>
       </c>
-      <c r="AM73" s="6"/>
-      <c r="AN73" s="3">
+      <c r="AN73" s="6"/>
+      <c r="AO73" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -7850,39 +7927,39 @@
       <c r="L74" s="3">
         <v>2</v>
       </c>
-      <c r="S74" s="3" t="s">
+      <c r="T74" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="Y74" s="3" t="s">
+      <c r="Z74" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="3" t="s">
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF74" s="10">
+      <c r="AG74" s="10">
         <v>0.03</v>
       </c>
-      <c r="AI74" s="3" t="s">
+      <c r="AJ74" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AJ74" s="3" t="s">
+      <c r="AK74" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AK74" s="3">
+      <c r="AL74" s="3">
         <v>2</v>
       </c>
-      <c r="AL74" s="3">
+      <c r="AM74" s="3">
         <v>79</v>
       </c>
-      <c r="AM74" s="13" t="s">
+      <c r="AN74" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="AN74" s="3">
+      <c r="AO74" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -7918,42 +7995,43 @@
       <c r="R75" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="S75" s="3" t="s">
+      <c r="S75" s="4"/>
+      <c r="T75" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T75" s="4" t="s">
+      <c r="U75" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="Y75" s="3" t="s">
+      <c r="Z75" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Z75" s="4" t="s">
+      <c r="AA75" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="AD75" s="4" t="s">
+      <c r="AE75" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="AE75" s="3" t="s">
+      <c r="AF75" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI75" s="3" t="s">
+      <c r="AJ75" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AJ75" s="3" t="s">
+      <c r="AK75" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AK75" s="3">
+      <c r="AL75" s="3">
         <v>3</v>
       </c>
-      <c r="AL75" s="3">
+      <c r="AM75" s="3">
         <v>80</v>
       </c>
-      <c r="AM75" s="6"/>
-      <c r="AN75" s="3">
+      <c r="AN75" s="6"/>
+      <c r="AO75" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -7989,43 +8067,43 @@
       <c r="R76" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="S76" s="3" t="s">
+      <c r="T76" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T76" s="3" t="s">
+      <c r="U76" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Y76" s="3" t="s">
+      <c r="Z76" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Z76" s="6" t="s">
+      <c r="AA76" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="AD76" s="3" t="s">
+      <c r="AE76" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AE76" s="3" t="s">
+      <c r="AF76" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AI76" s="3" t="s">
+      <c r="AJ76" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AJ76" s="3" t="s">
+      <c r="AK76" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AK76" s="3">
+      <c r="AL76" s="3">
         <v>3</v>
       </c>
-      <c r="AL76" s="3">
+      <c r="AM76" s="3">
         <v>81</v>
       </c>
-      <c r="AM76" s="4"/>
-      <c r="AN76" s="3">
+      <c r="AN76" s="4"/>
+      <c r="AO76" s="3">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
